--- a/PythonResources/Data/Consumption/Sympheny/post_1359_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1359_hea.xlsx
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.8984883981967926</v>
+        <v>0.8984883981967925</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -639,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>105.7432545304387</v>
+        <v>105.7432545304386</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>84.75790280709303</v>
+        <v>84.75790280709302</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>46.29232898279146</v>
+        <v>46.29232898279145</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>75.40307525302289</v>
+        <v>75.40307525302288</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>0.6830753233599306</v>
+        <v>0.6830753233599305</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>2.538628228250759</v>
+        <v>2.538628228250758</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>4.425108919851519</v>
+        <v>4.425108919851518</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>6.735974059696226</v>
+        <v>6.735974059696225</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>1.835571321474898</v>
+        <v>1.835571321474897</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>26.01210617846503</v>
+        <v>26.01210617846502</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>34.65184039820149</v>
+        <v>34.65184039820148</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>38.97024215287641</v>
+        <v>38.9702421528764</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>38.64932936554224</v>
+        <v>38.64932936554223</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>311.4319392334786</v>
+        <v>311.4319392334785</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>240.0471609915414</v>
+        <v>240.0471609915413</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>0.8088731359949264</v>
+        <v>0.8088731359949263</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>102.4520667662718</v>
+        <v>102.4520667662717</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>83.26030979953356</v>
+        <v>83.26030979953354</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>1.314118814515926</v>
+        <v>1.314118814515925</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>2.232333824325014</v>
+        <v>2.232333824325013</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>4.989856811351931</v>
+        <v>4.98985681135193</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>36.52192669589953</v>
+        <v>36.52192669589952</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>0.606223304891766</v>
+        <v>0.6062233048917659</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>0.5292100973523377</v>
+        <v>0.5292100973523376</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>0.5841023028936076</v>
+        <v>0.5841023028936075</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>0.6102676852252926</v>
+        <v>0.6102676852252925</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>7.543121007273438</v>
+        <v>7.543121007273437</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>0.4696316859028728</v>
+        <v>0.4696316859028727</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>0.9363385228399054</v>
+        <v>0.9363385228399052</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>0.1079113940744553</v>
+        <v>0.1079113940744552</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>0.4003379695217843</v>
+        <v>0.4003379695217842</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>107.6288735931858</v>
+        <v>107.6288735931857</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>5.851632200535617</v>
+        <v>5.851632200535616</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>52.89844326525685</v>
+        <v>52.89844326525684</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>4.44708924775112</v>
+        <v>4.447089247751119</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>24.5503850660377</v>
+        <v>24.55038506603769</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>35.28370155755535</v>
+        <v>35.28370155755534</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>40.60352705133609</v>
+        <v>40.60352705133608</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>43.4466091973898</v>
+        <v>43.44660919738979</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>177.5227994614527</v>
+        <v>177.5227994614526</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>17.02156592545094</v>
+        <v>17.02156592545093</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>43.69865029063856</v>
+        <v>43.69865029063855</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>44.1956987722082</v>
+        <v>44.19569877220819</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>71.39063966271041</v>
+        <v>71.3906396627104</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>80.05733641800371</v>
+        <v>80.0573364180037</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>97.16740979713038</v>
+        <v>97.16740979713036</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>489</v>
       </c>
       <c r="B489">
-        <v>94.13646911529474</v>
+        <v>94.13646911529472</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>38.2621825234706</v>
+        <v>38.26218252347059</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>314.4154024070511</v>
+        <v>314.415402407051</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>239.7244897779753</v>
+        <v>239.7244897779752</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>207.9098701050543</v>
+        <v>207.9098701050542</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>43.33963826827841</v>
+        <v>43.3396382682784</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>565</v>
       </c>
       <c r="B565">
-        <v>192.8987715048202</v>
+        <v>192.8987715048201</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>6.11970427959915</v>
+        <v>6.119704279599149</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>3.574821915383358</v>
+        <v>3.574821915383357</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>28.35471091179676</v>
+        <v>28.35471091179675</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>7.273730108535929</v>
+        <v>7.273730108535928</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>2.148978559508954</v>
+        <v>2.148978559508953</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>28.37305715881696</v>
+        <v>28.37305715881695</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>20.25879931140029</v>
+        <v>20.25879931140028</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>86.06265507121334</v>
+        <v>86.06265507121333</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>54.31485559510713</v>
+        <v>54.31485559510712</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>3.992008538917783</v>
+        <v>3.992008538917782</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>65.02103370844473</v>
+        <v>65.02103370844472</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>737</v>
       </c>
       <c r="B737">
-        <v>66.4125350000088</v>
+        <v>66.41253500000879</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>2.495136486113416</v>
+        <v>2.495136486113415</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>768</v>
       </c>
       <c r="B768">
-        <v>7.652465811797986</v>
+        <v>7.652465811797985</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>803</v>
       </c>
       <c r="B803">
-        <v>58.45975929489453</v>
+        <v>58.45975929489452</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>74.97724303384796</v>
+        <v>74.97724303384794</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>834</v>
       </c>
       <c r="B834">
-        <v>115.7041529924605</v>
+        <v>115.7041529924604</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>259.2884469638134</v>
+        <v>259.2884469638133</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>253.6998753275802</v>
+        <v>253.6998753275801</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>5.242220282743216</v>
+        <v>5.242220282743215</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>23.84847992844378</v>
+        <v>23.84847992844377</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>65.41902417894684</v>
+        <v>65.41902417894683</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>69.18909002028639</v>
+        <v>69.18909002028637</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>310.2039715814876</v>
+        <v>310.2039715814875</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>927</v>
       </c>
       <c r="B927">
-        <v>84.44724750611201</v>
+        <v>84.44724750611199</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>0.8867362495464727</v>
+        <v>0.8867362495464726</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>0.9038164296796558</v>
+        <v>0.9038164296796556</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>0.311209205244096</v>
+        <v>0.3112092052440959</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>0.3229525617632561</v>
+        <v>0.322952561763256</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>0.1068742156686328</v>
+        <v>0.1068742156686327</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>2.563293086864498</v>
+        <v>2.563293086864497</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>38.45824704833504</v>
+        <v>38.45824704833503</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>256.3058630033569</v>
+        <v>256.3058630033568</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>1045</v>
       </c>
       <c r="B1045">
-        <v>113.5919900168282</v>
+        <v>113.5919900168281</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>82.51122022471516</v>
+        <v>82.51122022471515</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>11.12544554124653</v>
+        <v>11.12544554124652</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>37.0544367731472</v>
+        <v>37.05443677314719</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>8.791603631970769</v>
+        <v>8.791603631970768</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>4.27233098739736</v>
+        <v>4.272330987397359</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>10.60738386620487</v>
+        <v>10.60738386620486</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>60.57162919948819</v>
+        <v>60.57162919948818</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>80.69183521670553</v>
+        <v>80.69183521670551</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>61.03028537499319</v>
+        <v>61.03028537499318</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>72.59340320537657</v>
+        <v>72.59340320537656</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>93.90142614228834</v>
+        <v>93.90142614228832</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>1195</v>
       </c>
       <c r="B1195">
-        <v>20.79207137334848</v>
+        <v>20.79207137334847</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>108.2680615285062</v>
+        <v>108.2680615285061</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>0.7446524792930659</v>
+        <v>0.7446524792930658</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>49.61428920601781</v>
+        <v>49.6142892060178</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>83.9962111776122</v>
+        <v>83.99621117761218</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>0.8799164864768232</v>
+        <v>0.8799164864768231</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>0.6086440716711088</v>
+        <v>0.6086440716711087</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>25.7604753846704</v>
+        <v>25.76047538467039</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>0.6894554798715881</v>
+        <v>0.689455479871588</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>2.624383744873456</v>
+        <v>2.624383744873455</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11639,7 +11639,7 @@
         <v>1412</v>
       </c>
       <c r="B1412">
-        <v>0.6806721408429076</v>
+        <v>0.6806721408429075</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -11663,7 +11663,7 @@
         <v>1415</v>
       </c>
       <c r="B1415">
-        <v>0.6765603541704889</v>
+        <v>0.6765603541704888</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>0.5822207868254018</v>
+        <v>0.5822207868254017</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>310.8809656807953</v>
+        <v>310.8809656807952</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1451</v>
       </c>
       <c r="B1451">
-        <v>102.1071221537674</v>
+        <v>102.1071221537673</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>6.978548958396222</v>
+        <v>6.978548958396221</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>4.908207219980881</v>
+        <v>4.90820721998088</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1482</v>
       </c>
       <c r="B1482">
-        <v>7.515337872808343</v>
+        <v>7.515337872808342</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12231,7 +12231,7 @@
         <v>1486</v>
       </c>
       <c r="B1486">
-        <v>30.11011851206662</v>
+        <v>30.11011851206661</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>63.20868240536297</v>
+        <v>63.20868240536296</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>5.981990198532184</v>
+        <v>5.981990198532183</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>7.333194222280317</v>
+        <v>7.333194222280316</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12431,7 +12431,7 @@
         <v>1511</v>
       </c>
       <c r="B1511">
-        <v>28.51959267814763</v>
+        <v>28.51959267814762</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>83.01852619263795</v>
+        <v>83.01852619263794</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>311.8861993434037</v>
+        <v>311.8861993434036</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>38.86825343142226</v>
+        <v>38.86825343142225</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12879,7 +12879,7 @@
         <v>1567</v>
       </c>
       <c r="B1567">
-        <v>304.2575602070489</v>
+        <v>304.2575602070488</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>6.709421823593509</v>
+        <v>6.709421823593508</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>89.93002049738845</v>
+        <v>89.93002049738844</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>67.38816848771242</v>
+        <v>67.38816848771241</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>73.09015861590755</v>
+        <v>73.09015861590754</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>22.10145415987964</v>
+        <v>22.10145415987963</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>55.07390958524001</v>
+        <v>55.07390958524</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>1.961011587442727</v>
+        <v>1.961011587442726</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>2.609176288677318</v>
+        <v>2.609176288677317</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>2.445071160578898</v>
+        <v>2.445071160578897</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13415,7 +13415,7 @@
         <v>1634</v>
       </c>
       <c r="B1634">
-        <v>18.84185945368042</v>
+        <v>18.84185945368041</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1652</v>
       </c>
       <c r="B1652">
-        <v>15.76229828653087</v>
+        <v>15.76229828653086</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>20.79561753291628</v>
+        <v>20.79561753291627</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>80.2712782762265</v>
+        <v>80.27127827622648</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>62.51351790165826</v>
+        <v>62.51351790165825</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13983,7 +13983,7 @@
         <v>1705</v>
       </c>
       <c r="B1705">
-        <v>1.53971610794627</v>
+        <v>1.539716107946269</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>88.32780112902688</v>
+        <v>88.32780112902687</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>43.34462047593565</v>
+        <v>43.34462047593564</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>1.115114787133713</v>
+        <v>1.115114787133712</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14183,7 +14183,7 @@
         <v>1730</v>
       </c>
       <c r="B1730">
-        <v>0.78646492437888</v>
+        <v>0.7864649243788799</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>30.21064187832746</v>
+        <v>30.21064187832745</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14343,7 +14343,7 @@
         <v>1750</v>
       </c>
       <c r="B1750">
-        <v>0.7049208385817473</v>
+        <v>0.7049208385817471</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14583,7 +14583,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>2.166961398441214</v>
+        <v>2.166961398441213</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>220.0591300127604</v>
+        <v>220.0591300127603</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>29.7751383148767</v>
+        <v>29.77513831487669</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14751,7 +14751,7 @@
         <v>1801</v>
       </c>
       <c r="B1801">
-        <v>0.7481751931777753</v>
+        <v>0.7481751931777751</v>
       </c>
     </row>
     <row r="1802" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>5.479842280889835</v>
+        <v>5.479842280889834</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>0.865875453014558</v>
+        <v>0.8658754530145579</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>28.57175932302935</v>
+        <v>28.57175932302934</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>36.50404936254119</v>
+        <v>36.50404936254118</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15023,7 +15023,7 @@
         <v>1835</v>
       </c>
       <c r="B1835">
-        <v>2.035146837382501</v>
+        <v>2.0351468373825</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>0.8000722127039263</v>
+        <v>0.8000722127039261</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>23.75079935125796</v>
+        <v>23.75079935125795</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15415,7 +15415,7 @@
         <v>1884</v>
       </c>
       <c r="B1884">
-        <v>61.35178430440469</v>
+        <v>61.35178430440468</v>
       </c>
     </row>
     <row r="1885" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>39.78556578243227</v>
+        <v>39.78556578243226</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>0.769648508180492</v>
+        <v>0.7696485081804919</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>0.7766763516875911</v>
+        <v>0.776676351687591</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>0.5279997139626663</v>
+        <v>0.5279997139626662</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>48.94462188267664</v>
+        <v>48.94462188267663</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15663,7 +15663,7 @@
         <v>1915</v>
       </c>
       <c r="B1915">
-        <v>0.8747437826444504</v>
+        <v>0.8747437826444503</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>0.4819641152097422</v>
+        <v>0.4819641152097421</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>1.307644875271897</v>
+        <v>1.307644875271896</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15775,7 +15775,7 @@
         <v>1929</v>
       </c>
       <c r="B1929">
-        <v>69.66855423953635</v>
+        <v>69.66855423953633</v>
       </c>
     </row>
     <row r="1930" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>6.255689241538014</v>
+        <v>6.255689241538013</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>3.165665438308254</v>
+        <v>3.165665438308253</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>1.671691858076247</v>
+        <v>1.671691858076246</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>0.5719076169749091</v>
+        <v>0.571907616974909</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>0.4693122384707319</v>
+        <v>0.4693122384707318</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>0.9138189442291677</v>
+        <v>0.9138189442291674</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16111,7 +16111,7 @@
         <v>1971</v>
       </c>
       <c r="B1971">
-        <v>0.6629530658454427</v>
+        <v>0.6629530658454426</v>
       </c>
     </row>
     <row r="1972" spans="1:2">
@@ -16199,7 +16199,7 @@
         <v>1982</v>
       </c>
       <c r="B1982">
-        <v>0.1498431190730046</v>
+        <v>0.1498431190730045</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>0.5971849940594501</v>
+        <v>0.59718499405945</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>6.850828599747608</v>
+        <v>6.850828599747607</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>6.412599475637299</v>
+        <v>6.412599475637298</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16375,7 +16375,7 @@
         <v>2004</v>
       </c>
       <c r="B2004">
-        <v>7.342162196063353</v>
+        <v>7.342162196063352</v>
       </c>
     </row>
     <row r="2005" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>8.030029230905397</v>
+        <v>8.030029230905395</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>0.6465997018881395</v>
+        <v>0.6465997018881394</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>77.92788225109038</v>
+        <v>77.92788225109037</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>0.5943304821428886</v>
+        <v>0.5943304821428885</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>0.4590694056695179</v>
+        <v>0.4590694056695178</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>0.4301989776509888</v>
+        <v>0.4301989776509887</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16911,7 +16911,7 @@
         <v>2071</v>
       </c>
       <c r="B2071">
-        <v>217.3825122166663</v>
+        <v>217.3825122166662</v>
       </c>
     </row>
     <row r="2072" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>43.64765592991148</v>
+        <v>43.64765592991147</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>26.8010241074375</v>
+        <v>26.80102410743749</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>0.6003794683808588</v>
+        <v>0.6003794683808586</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>0.9731599681373168</v>
+        <v>0.9731599681373166</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>0.926508920203204</v>
+        <v>0.9265089202032036</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17751,7 +17751,7 @@
         <v>2176</v>
       </c>
       <c r="B2176">
-        <v>0.8466822306926266</v>
+        <v>0.8466822306926265</v>
       </c>
     </row>
     <row r="2177" spans="1:2">
@@ -17847,7 +17847,7 @@
         <v>2188</v>
       </c>
       <c r="B2188">
-        <v>8.028124269154098</v>
+        <v>8.028124269154096</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -18039,7 +18039,7 @@
         <v>2212</v>
       </c>
       <c r="B2212">
-        <v>0.8740052436270238</v>
+        <v>0.8740052436270237</v>
       </c>
     </row>
     <row r="2213" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>0.7373022576434394</v>
+        <v>0.7373022576434393</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>200.5441156903787</v>
+        <v>200.5441156903786</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18295,7 +18295,7 @@
         <v>2244</v>
       </c>
       <c r="B2244">
-        <v>0.6959616569298699</v>
+        <v>0.6959616569298698</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>0.6669886540478094</v>
+        <v>0.6669886540478093</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>0.2608915455452909</v>
+        <v>0.2608915455452908</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>0.2880656783920482</v>
+        <v>0.2880656783920481</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>28.05645251575111</v>
+        <v>28.0564525157511</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>0.6117271789978261</v>
+        <v>0.611727178997826</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>0.6951088202073654</v>
+        <v>0.6951088202073653</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19079,7 +19079,7 @@
         <v>2342</v>
       </c>
       <c r="B2342">
-        <v>0.8327408413835063</v>
+        <v>0.8327408413835062</v>
       </c>
     </row>
     <row r="2343" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>0.6156220931016354</v>
+        <v>0.6156220931016353</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>73.17632150127399</v>
+        <v>73.17632150127397</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>0.7803133632773783</v>
+        <v>0.7803133632773782</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>0.7312913706404951</v>
+        <v>0.731291370640495</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19695,7 +19695,7 @@
         <v>2419</v>
       </c>
       <c r="B2419">
-        <v>0.6315505040528795</v>
+        <v>0.6315505040528794</v>
       </c>
     </row>
     <row r="2420" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>0.7786809575920346</v>
+        <v>0.7786809575920345</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>0.4704024627345521</v>
+        <v>0.470402462734552</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>0.5536082613208947</v>
+        <v>0.5536082613208946</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20095,7 +20095,7 @@
         <v>2469</v>
       </c>
       <c r="B2469">
-        <v>0.6618569801608492</v>
+        <v>0.661856980160849</v>
       </c>
     </row>
     <row r="2470" spans="1:2">
@@ -20103,7 +20103,7 @@
         <v>2470</v>
       </c>
       <c r="B2470">
-        <v>0.6099775448970178</v>
+        <v>0.6099775448970177</v>
       </c>
     </row>
     <row r="2471" spans="1:2">
@@ -20111,7 +20111,7 @@
         <v>2471</v>
       </c>
       <c r="B2471">
-        <v>0.566131186802894</v>
+        <v>0.5661311868028939</v>
       </c>
     </row>
     <row r="2472" spans="1:2">
@@ -20119,7 +20119,7 @@
         <v>2472</v>
       </c>
       <c r="B2472">
-        <v>0.5254558573470859</v>
+        <v>0.5254558573470858</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>0.7184050370705558</v>
+        <v>0.7184050370705557</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20351,7 +20351,7 @@
         <v>2501</v>
       </c>
       <c r="B2501">
-        <v>0.7884109160755913</v>
+        <v>0.7884109160755912</v>
       </c>
     </row>
     <row r="2502" spans="1:2">
@@ -20407,7 +20407,7 @@
         <v>2508</v>
       </c>
       <c r="B2508">
-        <v>0.873260843188824</v>
+        <v>0.8732608431888239</v>
       </c>
     </row>
     <row r="2509" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>0.7908228907237742</v>
+        <v>0.7908228907237741</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>0.4955801956659483</v>
+        <v>0.4955801956659482</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>0.7754894139810126</v>
+        <v>0.7754894139810125</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>1.822632235118</v>
+        <v>1.822632235117999</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>0.4263450934925921</v>
+        <v>0.426345093492592</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20751,7 +20751,7 @@
         <v>2551</v>
       </c>
       <c r="B2551">
-        <v>97.50649298886157</v>
+        <v>97.50649298886154</v>
       </c>
     </row>
     <row r="2552" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>0.6523116564316492</v>
+        <v>0.6523116564316491</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>0.7491687039988372</v>
+        <v>0.7491687039988371</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>0.6467667523801766</v>
+        <v>0.6467667523801764</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21263,7 +21263,7 @@
         <v>2615</v>
       </c>
       <c r="B2615">
-        <v>0.4444832600753428</v>
+        <v>0.4444832600753427</v>
       </c>
     </row>
     <row r="2616" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>44.48613217152159</v>
+        <v>44.48613217152158</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>19.45083176491483</v>
+        <v>19.45083176491482</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>0.8093625646294909</v>
+        <v>0.8093625646294907</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>0.7366457785168379</v>
+        <v>0.7366457785168378</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>0.4756777414304563</v>
+        <v>0.4756777414304562</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>0.5333863596532619</v>
+        <v>0.5333863596532618</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>0.4013900945505785</v>
+        <v>0.4013900945505784</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -22063,7 +22063,7 @@
         <v>2715</v>
       </c>
       <c r="B2715">
-        <v>0.3768014344068917</v>
+        <v>0.3768014344068916</v>
       </c>
     </row>
     <row r="2716" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>74.72021973294196</v>
+        <v>74.72021973294194</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22143,7 +22143,7 @@
         <v>2725</v>
       </c>
       <c r="B2725">
-        <v>8.159156330539586</v>
+        <v>8.159156330539584</v>
       </c>
     </row>
     <row r="2726" spans="1:2">
@@ -22159,7 +22159,7 @@
         <v>2727</v>
       </c>
       <c r="B2727">
-        <v>5.355756003120621</v>
+        <v>5.35575600312062</v>
       </c>
     </row>
     <row r="2728" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>0.1251721059674539</v>
+        <v>0.1251721059674538</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>2.660818336399834</v>
+        <v>2.660818336399833</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>0.7053340687462597</v>
+        <v>0.7053340687462596</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>65.86478522875075</v>
+        <v>65.86478522875073</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22511,7 +22511,7 @@
         <v>2771</v>
       </c>
       <c r="B2771">
-        <v>0.6166654259992698</v>
+        <v>0.6166654259992697</v>
       </c>
     </row>
     <row r="2772" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>0.6118678530963836</v>
+        <v>0.6118678530963835</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>0.5404816094992531</v>
+        <v>0.5404816094992529</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22615,7 +22615,7 @@
         <v>2784</v>
       </c>
       <c r="B2784">
-        <v>0.4611121108089875</v>
+        <v>0.4611121108089874</v>
       </c>
     </row>
     <row r="2785" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>18.20214399049044</v>
+        <v>18.20214399049043</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>4.576655953943301</v>
+        <v>4.5766559539433</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>0.4725448120271666</v>
+        <v>0.4725448120271665</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22895,7 +22895,7 @@
         <v>2819</v>
       </c>
       <c r="B2819">
-        <v>0.7125699926908083</v>
+        <v>0.7125699926908082</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>0.8346897637906043</v>
+        <v>0.8346897637906042</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -23119,7 +23119,7 @@
         <v>2847</v>
       </c>
       <c r="B2847">
-        <v>1.136488457983285</v>
+        <v>1.136488457983284</v>
       </c>
     </row>
     <row r="2848" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>59.27537599548906</v>
+        <v>59.27537599548905</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23455,7 +23455,7 @@
         <v>2889</v>
       </c>
       <c r="B2889">
-        <v>4.368722052013077</v>
+        <v>4.368722052013076</v>
       </c>
     </row>
     <row r="2890" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>2.258839169061546</v>
+        <v>2.258839169061545</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>0.7218691367475328</v>
+        <v>0.7218691367475327</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>0.6881044223833592</v>
+        <v>0.6881044223833591</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>0.6389271020959856</v>
+        <v>0.6389271020959855</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>0.4751677978231856</v>
+        <v>0.4751677978231855</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23975,7 +23975,7 @@
         <v>2954</v>
       </c>
       <c r="B2954">
-        <v>0.4526042585566486</v>
+        <v>0.4526042585566485</v>
       </c>
     </row>
     <row r="2955" spans="1:2">
@@ -24039,7 +24039,7 @@
         <v>2962</v>
       </c>
       <c r="B2962">
-        <v>0.9389556472151512</v>
+        <v>0.938955647215151</v>
       </c>
     </row>
     <row r="2963" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>0.6406415676721544</v>
+        <v>0.6406415676721543</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>0.5725582346807373</v>
+        <v>0.5725582346807372</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>0.4405121475014815</v>
+        <v>0.4405121475014814</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>0.6994521330003266</v>
+        <v>0.6994521330003265</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24775,7 +24775,7 @@
         <v>3054</v>
       </c>
       <c r="B3054">
-        <v>77.40064745253862</v>
+        <v>77.40064745253861</v>
       </c>
     </row>
     <row r="3055" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>1.90431699501369</v>
+        <v>1.904316995013689</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24823,7 +24823,7 @@
         <v>3060</v>
       </c>
       <c r="B3060">
-        <v>0.6226411444775746</v>
+        <v>0.6226411444775745</v>
       </c>
     </row>
     <row r="3061" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>51.98640619294274</v>
+        <v>51.98640619294273</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>0.6629530658454427</v>
+        <v>0.6629530658454426</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25743,7 +25743,7 @@
         <v>3175</v>
       </c>
       <c r="B3175">
-        <v>0.3266980096373481</v>
+        <v>0.326698009637348</v>
       </c>
     </row>
     <row r="3176" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>1.203850836219595</v>
+        <v>1.203850836219594</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>0.2943576205210686</v>
+        <v>0.2943576205210685</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>0.7382957684645013</v>
+        <v>0.7382957684645012</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>0.3820474059989297</v>
+        <v>0.3820474059989296</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>0.9697867204823248</v>
+        <v>0.9697867204823246</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26151,7 +26151,7 @@
         <v>3226</v>
       </c>
       <c r="B3226">
-        <v>0.9241467676315934</v>
+        <v>0.9241467676315932</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>0.6658280927347104</v>
+        <v>0.6658280927347103</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>0.1701388746423801</v>
+        <v>0.17013887464238</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>98.41589242182771</v>
+        <v>98.41589242182768</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26327,7 +26327,7 @@
         <v>3248</v>
       </c>
       <c r="B3248">
-        <v>1.945493475945609</v>
+        <v>1.945493475945608</v>
       </c>
     </row>
     <row r="3249" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>0.4476982493694577</v>
+        <v>0.4476982493694576</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>0.854495504583338</v>
+        <v>0.8544955045833379</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>0.3925188342102996</v>
+        <v>0.3925188342102995</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>0.2579227359236515</v>
+        <v>0.2579227359236514</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>0.9991319235834852</v>
+        <v>0.999131923583485</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>0.8127182280221633</v>
+        <v>0.8127182280221632</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>0.6547646610252447</v>
+        <v>0.6547646610252446</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>0.5515157341048527</v>
+        <v>0.5515157341048526</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27127,7 +27127,7 @@
         <v>3348</v>
       </c>
       <c r="B3348">
-        <v>0.5729978412387293</v>
+        <v>0.5729978412387292</v>
       </c>
     </row>
     <row r="3349" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>0.5417828449109094</v>
+        <v>0.5417828449109093</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>91.9653988608915</v>
+        <v>91.96539886089148</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>0.5644606818825243</v>
+        <v>0.5644606818825242</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>0.7342836259452274</v>
+        <v>0.7342836259452273</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>1.446249892296394</v>
+        <v>1.446249892296393</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>0.8178909318545361</v>
+        <v>0.817890931854536</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>1.968109767999105</v>
+        <v>1.968109767999104</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>0.3428843231026142</v>
+        <v>0.3428843231026141</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>1.931921356145202</v>
+        <v>1.931921356145201</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>0.5095889913139606</v>
+        <v>0.5095889913139605</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>0.7750673916853402</v>
+        <v>0.7750673916853401</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>0.5501529537750774</v>
+        <v>0.5501529537750773</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>0.0434260942246835</v>
+        <v>0.0434260942246834</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29855,7 +29855,7 @@
         <v>3689</v>
       </c>
       <c r="B3689">
-        <v>0.6351230400141613</v>
+        <v>0.6351230400141612</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>0.8036037187197955</v>
+        <v>0.8036037187197954</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30343,7 +30343,7 @@
         <v>3750</v>
       </c>
       <c r="B3750">
-        <v>0.88963765282922</v>
+        <v>0.8896376528292199</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>0.6677008166717564</v>
+        <v>0.6677008166717563</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>0.5326448899254487</v>
+        <v>0.5326448899254486</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>0.715181255645281</v>
+        <v>0.7151812556452809</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30951,7 +30951,7 @@
         <v>3826</v>
       </c>
       <c r="B3826">
-        <v>0.8088321060495138</v>
+        <v>0.8088321060495137</v>
       </c>
     </row>
     <row r="3827" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>66.15228791767753</v>
+        <v>66.15228791767751</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31399,7 +31399,7 @@
         <v>3882</v>
       </c>
       <c r="B3882">
-        <v>0.3635956534048115</v>
+        <v>0.3635956534048114</v>
       </c>
     </row>
     <row r="3883" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>0.1334967888206294</v>
+        <v>0.1334967888206293</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>2.555638071334664</v>
+        <v>2.555638071334663</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>0.6189777564943078</v>
+        <v>0.6189777564943076</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>0.5909660266190564</v>
+        <v>0.5909660266190563</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -33319,7 +33319,7 @@
         <v>4122</v>
       </c>
       <c r="B4122">
-        <v>0.639249480238513</v>
+        <v>0.6392494802385129</v>
       </c>
     </row>
     <row r="4123" spans="1:2">
@@ -33415,7 +33415,7 @@
         <v>4134</v>
       </c>
       <c r="B4134">
-        <v>0.5652695579492296</v>
+        <v>0.5652695579492295</v>
       </c>
     </row>
     <row r="4135" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>0.6831573832507558</v>
+        <v>0.6831573832507557</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>0.1513837935232473</v>
+        <v>0.1513837935232472</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>0.1230672697677881</v>
+        <v>0.123067269767788</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33807,7 +33807,7 @@
         <v>4183</v>
       </c>
       <c r="B4183">
-        <v>0.5418443898290283</v>
+        <v>0.5418443898290282</v>
       </c>
     </row>
     <row r="4184" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>0.6339624787010624</v>
+        <v>0.6339624787010623</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>0.7384276504318988</v>
+        <v>0.7384276504318987</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>1.051193062891287</v>
+        <v>1.051193062891286</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>0.5201629943888619</v>
+        <v>0.5201629943888618</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>0.8576049883035349</v>
+        <v>0.8576049883035348</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>0.4719850463433234</v>
+        <v>0.4719850463433233</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>0.3872230405416891</v>
+        <v>0.387223040541689</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>0.3096500673184176</v>
+        <v>0.3096500673184175</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>1.311278956151298</v>
+        <v>1.311278956151297</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>0.423320600373607</v>
+        <v>0.4233206003736069</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>0.9871072188672102</v>
+        <v>0.98710721886721</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>1.197907355555543</v>
+        <v>1.197907355555542</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>0.9536678133559509</v>
+        <v>0.9536678133559506</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>0.5985975964657978</v>
+        <v>0.5985975964657977</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>0.7664071424928975</v>
+        <v>0.7664071424928974</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>0.6862082527632204</v>
+        <v>0.6862082527632203</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>0.7415195498897761</v>
+        <v>0.741519549889776</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39567,7 +39567,7 @@
         <v>4903</v>
       </c>
       <c r="B4903">
-        <v>0.7086252565104266</v>
+        <v>0.7086252565104265</v>
       </c>
     </row>
     <row r="4904" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>0.6360256988132382</v>
+        <v>0.6360256988132381</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>0.3500821478121368</v>
+        <v>0.3500821478121367</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>0.6435576245068347</v>
+        <v>0.6435576245068346</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>1.009448024144365</v>
+        <v>1.009448024144364</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>0.9574220533612026</v>
+        <v>0.9574220533612025</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>1.353501700691238</v>
+        <v>1.353501700691237</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>0.5638305791494024</v>
+        <v>0.5638305791494023</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>0.5708144620007023</v>
+        <v>0.5708144620007022</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>0.5228328715510668</v>
+        <v>0.5228328715510667</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>0.741710046064906</v>
+        <v>0.7417100460649059</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>0.6185381499363157</v>
+        <v>0.6185381499363156</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>1.048168569772302</v>
+        <v>1.048168569772301</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>0.8019039066955597</v>
+        <v>0.8019039066955596</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43287,7 +43287,7 @@
         <v>5368</v>
       </c>
       <c r="B5368">
-        <v>0.2274380726241757</v>
+        <v>0.2274380726241756</v>
       </c>
     </row>
     <row r="5369" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>0.5266164186601848</v>
+        <v>0.5266164186601847</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>0.7215555507361653</v>
+        <v>0.7215555507361652</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>0.3484995642033656</v>
+        <v>0.3484995642033655</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>0.0530496679212061</v>
+        <v>0.053049667921206</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>0.5258280575661858</v>
+        <v>0.5258280575661857</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43799,7 +43799,7 @@
         <v>5432</v>
       </c>
       <c r="B5432">
-        <v>0.967184249659012</v>
+        <v>0.9671842496590118</v>
       </c>
     </row>
     <row r="5433" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>0.8854994897633217</v>
+        <v>0.8854994897633216</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>0.09713018977522039</v>
+        <v>0.0971301897752203</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>0.7828835962864383</v>
+        <v>0.7828835962864382</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>0.865693748970588</v>
+        <v>0.8656937489705879</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45351,7 +45351,7 @@
         <v>5626</v>
       </c>
       <c r="B5626">
-        <v>0.6203288139825366</v>
+        <v>0.6203288139825365</v>
       </c>
     </row>
     <row r="5627" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>0.8889166980741131</v>
+        <v>0.888916698074113</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>1.10426529728247</v>
+        <v>1.104265297282469</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>0.6386691995819636</v>
+        <v>0.6386691995819634</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>0.7292369426594791</v>
+        <v>0.729236942659479</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>0.6435078024302623</v>
+        <v>0.6435078024302622</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45975,7 +45975,7 @@
         <v>5704</v>
       </c>
       <c r="B5704">
-        <v>0.7487701273862577</v>
+        <v>0.7487701273862576</v>
       </c>
     </row>
     <row r="5705" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>0.4371975140542217</v>
+        <v>0.4371975140542216</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>0.2511577771382317</v>
+        <v>0.2511577771382316</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>0.8259533161281096</v>
+        <v>0.8259533161281095</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>0.3106494395602528</v>
+        <v>0.3106494395602527</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -47071,7 +47071,7 @@
         <v>5841</v>
       </c>
       <c r="B5841">
-        <v>0.6204606959499341</v>
+        <v>0.620460695949934</v>
       </c>
     </row>
     <row r="5842" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>0.5962032060799346</v>
+        <v>0.5962032060799345</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>0.6795526094752212</v>
+        <v>0.6795526094752211</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>0.8233508453047969</v>
+        <v>0.8233508453047967</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>0.6024426884930346</v>
+        <v>0.6024426884930345</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>0.6300822181491861</v>
+        <v>0.630082218149186</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>0.073340734353963</v>
+        <v>0.07334073435396291</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>0.8498972199867415</v>
+        <v>0.8498972199867414</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>0.514415871320713</v>
+        <v>0.5144158713207129</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>0.5784636161097634</v>
+        <v>0.5784636161097633</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>0.4065246991479253</v>
+        <v>0.4065246991479252</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>0.8346223574517122</v>
+        <v>0.8346223574517121</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>0.1372513218969199</v>
+        <v>0.1372513218969198</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48631,7 +48631,7 @@
         <v>6036</v>
       </c>
       <c r="B6036">
-        <v>0.5109605637748957</v>
+        <v>0.5109605637748956</v>
       </c>
     </row>
     <row r="6037" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>0.6272071912599183</v>
+        <v>0.6272071912599182</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>0.5291602752757653</v>
+        <v>0.5291602752757651</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>1.91569694344491</v>
+        <v>1.915696943444909</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>0.8160416536005829</v>
+        <v>0.8160416536005828</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49759,7 +49759,7 @@
         <v>6177</v>
       </c>
       <c r="B6177">
-        <v>0.8980575837699605</v>
+        <v>0.8980575837699604</v>
       </c>
     </row>
     <row r="6178" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>0.7825436338815912</v>
+        <v>0.7825436338815911</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49807,7 +49807,7 @@
         <v>6183</v>
       </c>
       <c r="B6183">
-        <v>0.6435927930314742</v>
+        <v>0.6435927930314741</v>
       </c>
     </row>
     <row r="6184" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>0.3841194182422655</v>
+        <v>0.3841194182422654</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>0.4991527316272301</v>
+        <v>0.49915273162723</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>0.902822918858594</v>
+        <v>0.9028229188585938</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>34.47863541435263</v>
+        <v>34.47863541435262</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>0.514855477878705</v>
+        <v>0.5148554778787049</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>0.2802207528291613</v>
+        <v>0.2802207528291612</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>0.3656207742819613</v>
+        <v>0.3656207742819612</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>0.778276519558682</v>
+        <v>0.7782765195586819</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>0.3599732953669572</v>
+        <v>0.3599732953669571</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>0.0795289293352973</v>
+        <v>0.0795289293352972</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -51095,7 +51095,7 @@
         <v>6344</v>
       </c>
       <c r="B6344">
-        <v>1.469736605334714</v>
+        <v>1.469736605334713</v>
       </c>
     </row>
     <row r="6345" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>1.611826237008894</v>
+        <v>1.611826237008893</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51119,7 +51119,7 @@
         <v>6347</v>
       </c>
       <c r="B6347">
-        <v>0.8020445807941171</v>
+        <v>0.802044580794117</v>
       </c>
     </row>
     <row r="6348" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>0.4339532176562406</v>
+        <v>0.4339532176562405</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51527,7 +51527,7 @@
         <v>6398</v>
       </c>
       <c r="B6398">
-        <v>0.556691368647612</v>
+        <v>0.5566913686476119</v>
       </c>
     </row>
     <row r="6399" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>2.114800614980268</v>
+        <v>2.114800614980267</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51735,7 +51735,7 @@
         <v>6424</v>
       </c>
       <c r="B6424">
-        <v>0.3715056407382812</v>
+        <v>0.3715056407382811</v>
       </c>
     </row>
     <row r="6425" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>0.7364142523962954</v>
+        <v>0.7364142523962953</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -51903,7 +51903,7 @@
         <v>6445</v>
       </c>
       <c r="B6445">
-        <v>0.7482162231231878</v>
+        <v>0.7482162231231877</v>
       </c>
     </row>
     <row r="6446" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>1.185891442970428</v>
+        <v>1.185891442970427</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>0.6730552245480992</v>
+        <v>0.6730552245480991</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>0.6657284485815655</v>
+        <v>0.6657284485815654</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52263,7 +52263,7 @@
         <v>6490</v>
       </c>
       <c r="B6490">
-        <v>0.6849392551658168</v>
+        <v>0.6849392551658167</v>
       </c>
     </row>
     <row r="6491" spans="1:2">
@@ -52631,7 +52631,7 @@
         <v>6536</v>
       </c>
       <c r="B6536">
-        <v>0.4451661155954237</v>
+        <v>0.4451661155954236</v>
       </c>
     </row>
     <row r="6537" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>0.4902638870246315</v>
+        <v>0.4902638870246314</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>0.6666897215883748</v>
+        <v>0.6666897215883747</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>0.5224342949384874</v>
+        <v>0.5224342949384873</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>4.318108683636262</v>
+        <v>4.318108683636261</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>0.8879202565426645</v>
+        <v>0.8879202565426644</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>0.6147428799856514</v>
+        <v>0.6147428799856512</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>1.328382581967574</v>
+        <v>1.328382581967573</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53823,7 +53823,7 @@
         <v>6685</v>
       </c>
       <c r="B6685">
-        <v>0.6660185889098403</v>
+        <v>0.6660185889098402</v>
       </c>
     </row>
     <row r="6686" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>0.4296392119671456</v>
+        <v>0.4296392119671455</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -53991,7 +53991,7 @@
         <v>6706</v>
       </c>
       <c r="B6706">
-        <v>1.291974366834675</v>
+        <v>1.291974366834674</v>
       </c>
     </row>
     <row r="6707" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>0.8345725353751398</v>
+        <v>0.8345725353751396</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>142.7150452706834</v>
+        <v>142.7150452706833</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>0.6256656375965597</v>
+        <v>0.6256656375965596</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>0.8134890048538426</v>
+        <v>0.8134890048538425</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>0.9505759138980736</v>
+        <v>0.9505759138980734</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>0.5543702460214142</v>
+        <v>0.554370246021414</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>0.3252854072310004</v>
+        <v>0.3252854072310003</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>56.74265607937771</v>
+        <v>56.7426560793777</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55607,7 +55607,7 @@
         <v>6908</v>
       </c>
       <c r="B6908">
-        <v>0.5094512479257898</v>
+        <v>0.5094512479257897</v>
       </c>
     </row>
     <row r="6909" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>0.5076869602730485</v>
+        <v>0.5076869602730484</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55703,7 +55703,7 @@
         <v>6920</v>
       </c>
       <c r="B6920">
-        <v>8.768011413358531</v>
+        <v>8.768011413358529</v>
       </c>
     </row>
     <row r="6921" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>0.8908538976396645</v>
+        <v>0.8908538976396644</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>0.8333211220400558</v>
+        <v>0.8333211220400557</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>0.4827964369595404</v>
+        <v>0.4827964369595403</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55895,7 +55895,7 @@
         <v>6944</v>
       </c>
       <c r="B6944">
-        <v>23.91603280285522</v>
+        <v>23.91603280285521</v>
       </c>
     </row>
     <row r="6945" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>7.27440417192485</v>
+        <v>7.274404171924849</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>0.3756291502522463</v>
+        <v>0.3756291502522462</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -55983,7 +55983,7 @@
         <v>6955</v>
       </c>
       <c r="B6955">
-        <v>0.5041642463883391</v>
+        <v>0.504164246388339</v>
       </c>
     </row>
     <row r="6956" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>0.880312132379016</v>
+        <v>0.8803121323790158</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56135,7 +56135,7 @@
         <v>6974</v>
       </c>
       <c r="B6974">
-        <v>0.5789354604820082</v>
+        <v>0.5789354604820081</v>
       </c>
     </row>
     <row r="6975" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>0.9553090111724544</v>
+        <v>0.955309011172454</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>0.5096593283632394</v>
+        <v>0.5096593283632392</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>1.457711900618439</v>
+        <v>1.457711900618438</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56519,7 +56519,7 @@
         <v>7022</v>
       </c>
       <c r="B7022">
-        <v>0.9633889797083476</v>
+        <v>0.9633889797083474</v>
       </c>
     </row>
     <row r="7023" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>0.8584578250260394</v>
+        <v>0.8584578250260393</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>3.086536257869691</v>
+        <v>3.08653625786969</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>6.499963952262245</v>
+        <v>6.499963952262244</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>0.3561282033397204</v>
+        <v>0.3561282033397203</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>0.4068148394762</v>
+        <v>0.4068148394761999</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>0.231790763690374</v>
+        <v>0.2317907636903739</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>1.178840153780236</v>
+        <v>1.178840153780235</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>0.7393566856244553</v>
+        <v>0.7393566856244552</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>0.6777209154835878</v>
+        <v>0.6777209154835877</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>0.5200018053175982</v>
+        <v>0.5200018053175981</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>0.4748483503910447</v>
+        <v>0.4748483503910446</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58007,7 +58007,7 @@
         <v>7208</v>
       </c>
       <c r="B7208">
-        <v>0.6729731646572741</v>
+        <v>0.672973164657274</v>
       </c>
     </row>
     <row r="7209" spans="1:2">
@@ -58127,7 +58127,7 @@
         <v>7223</v>
       </c>
       <c r="B7223">
-        <v>2.209444976205563</v>
+        <v>2.209444976205562</v>
       </c>
     </row>
     <row r="7224" spans="1:2">
@@ -58135,7 +58135,7 @@
         <v>7224</v>
       </c>
       <c r="B7224">
-        <v>2.909248794452283</v>
+        <v>2.909248794452282</v>
       </c>
     </row>
     <row r="7225" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>72.55501089931194</v>
+        <v>72.55501089931192</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58255,7 +58255,7 @@
         <v>7239</v>
       </c>
       <c r="B7239">
-        <v>3.739264075176239</v>
+        <v>3.739264075176238</v>
       </c>
     </row>
     <row r="7240" spans="1:2">
@@ -58295,7 +58295,7 @@
         <v>7244</v>
       </c>
       <c r="B7244">
-        <v>0.9401836148671422</v>
+        <v>0.940183614867142</v>
       </c>
     </row>
     <row r="7245" spans="1:2">
@@ -58303,7 +58303,7 @@
         <v>7245</v>
       </c>
       <c r="B7245">
-        <v>0.7337209295509977</v>
+        <v>0.7337209295509975</v>
       </c>
     </row>
     <row r="7246" spans="1:2">
@@ -58311,7 +58311,7 @@
         <v>7246</v>
       </c>
       <c r="B7246">
-        <v>0.5551175771700007</v>
+        <v>0.5551175771700005</v>
       </c>
     </row>
     <row r="7247" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>41.93319035374261</v>
+        <v>41.9331903537426</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>3.958657054718122</v>
+        <v>3.958657054718121</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>0.5643200077839668</v>
+        <v>0.5643200077839667</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>0.4434926799646674</v>
+        <v>0.4434926799646673</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>0.4694411897277429</v>
+        <v>0.4694411897277428</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>0.5589831841699437</v>
+        <v>0.5589831841699436</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>0.4771899879899489</v>
+        <v>0.4771899879899488</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>9.085290119813305</v>
+        <v>9.085290119813299</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58679,7 +58679,7 @@
         <v>7292</v>
       </c>
       <c r="B7292">
-        <v>0.5850518530588704</v>
+        <v>0.5850518530588703</v>
       </c>
     </row>
     <row r="7293" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>5.970970727478517</v>
+        <v>5.970970727478516</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>0.4735559071105482</v>
+        <v>0.4735559071105481</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>0.5313436545137923</v>
+        <v>0.5313436545137922</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -59087,7 +59087,7 @@
         <v>7343</v>
       </c>
       <c r="B7343">
-        <v>0.4397384399594156</v>
+        <v>0.4397384399594155</v>
       </c>
     </row>
     <row r="7344" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>0.4757598013212815</v>
+        <v>0.4757598013212814</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59119,7 +59119,7 @@
         <v>7347</v>
       </c>
       <c r="B7347">
-        <v>0.4508311787727475</v>
+        <v>0.4508311787727474</v>
       </c>
     </row>
     <row r="7348" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>0.3810568258882544</v>
+        <v>0.3810568258882543</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59351,7 +59351,7 @@
         <v>7376</v>
       </c>
       <c r="B7376">
-        <v>0.2931970592079697</v>
+        <v>0.2931970592079696</v>
       </c>
     </row>
     <row r="7377" spans="1:2">
@@ -59375,7 +59375,7 @@
         <v>7379</v>
       </c>
       <c r="B7379">
-        <v>0.7925783862453556</v>
+        <v>0.7925783862453555</v>
       </c>
     </row>
     <row r="7380" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>9.336774378088604</v>
+        <v>9.336774378088602</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>0.6965419375864194</v>
+        <v>0.6965419375864192</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>5.219565891454694</v>
+        <v>5.219565891454693</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>34.15772262701846</v>
+        <v>34.15772262701845</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>0.5444673756250473</v>
+        <v>0.5444673756250472</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>0.4421826524218512</v>
+        <v>0.4421826524218511</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>6.24692641748204</v>
+        <v>6.246926417482039</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>0.996274480956537</v>
+        <v>0.9962744809565368</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>0.8868534779619373</v>
+        <v>0.8868534779619371</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>0.4297300639891306</v>
+        <v>0.4297300639891305</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>189.6459760467179</v>
+        <v>189.6459760467178</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>84.3684113967121</v>
+        <v>84.36841139671209</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61415,7 +61415,7 @@
         <v>7634</v>
       </c>
       <c r="B7634">
-        <v>0.7172620600197765</v>
+        <v>0.7172620600197764</v>
       </c>
     </row>
     <row r="7635" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>0.6834563157101904</v>
+        <v>0.6834563157101903</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>0.5868425171050913</v>
+        <v>0.5868425171050912</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>77.30393400978038</v>
+        <v>77.30393400978036</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>34.91677661715134</v>
+        <v>34.91677661715133</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>2.661293111482465</v>
+        <v>2.661293111482464</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>5.949459313240775</v>
+        <v>5.949459313240774</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>160.5246792190947</v>
+        <v>160.5246792190946</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61687,7 +61687,7 @@
         <v>7668</v>
       </c>
       <c r="B7668">
-        <v>52.72025607375075</v>
+        <v>52.72025607375074</v>
       </c>
     </row>
     <row r="7669" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>0.7888505226335834</v>
+        <v>0.7888505226335832</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.7852779866723015</v>
+        <v>0.7852779866723014</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>0.717584438162304</v>
+        <v>0.7175844381623039</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62119,7 +62119,7 @@
         <v>7722</v>
       </c>
       <c r="B7722">
-        <v>8.99478978307468</v>
+        <v>8.994789783074678</v>
       </c>
     </row>
     <row r="7723" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>18.93238909752291</v>
+        <v>18.9323890975229</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>25.5895563549231</v>
+        <v>25.58955635492309</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>2.483489843037014</v>
+        <v>2.483489843037013</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>25.50427268267265</v>
+        <v>25.50427268267264</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>254.1646859948971</v>
+        <v>254.164685994897</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>89.68032397244899</v>
+        <v>89.68032397244897</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62535,7 +62535,7 @@
         <v>7774</v>
       </c>
       <c r="B7774">
-        <v>2.173924766319808</v>
+        <v>2.173924766319807</v>
       </c>
     </row>
     <row r="7775" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>311.8187930045116</v>
+        <v>311.8187930045115</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62711,7 +62711,7 @@
         <v>7796</v>
       </c>
       <c r="B7796">
-        <v>3.296287200239615</v>
+        <v>3.296287200239614</v>
       </c>
     </row>
     <row r="7797" spans="1:2">
@@ -62975,7 +62975,7 @@
         <v>7829</v>
       </c>
       <c r="B7829">
-        <v>69.30895607509888</v>
+        <v>69.30895607509886</v>
       </c>
     </row>
     <row r="7830" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>99.13714024797328</v>
+        <v>99.13714024797326</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63319,7 +63319,7 @@
         <v>7872</v>
       </c>
       <c r="B7872">
-        <v>69.34734838116351</v>
+        <v>69.3473483811635</v>
       </c>
     </row>
     <row r="7873" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>72.51925623259525</v>
+        <v>72.51925623259524</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63703,7 +63703,7 @@
         <v>7920</v>
       </c>
       <c r="B7920">
-        <v>0.6430535423203373</v>
+        <v>0.6430535423203372</v>
       </c>
     </row>
     <row r="7921" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>0.6187052004283528</v>
+        <v>0.6187052004283526</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>64.34140196978908</v>
+        <v>64.34140196978906</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>0.8427609401953378</v>
+        <v>0.8427609401953376</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>0.6487889425469399</v>
+        <v>0.6487889425469398</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>5.209103255374484</v>
+        <v>5.209103255374483</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>7.604695232496186</v>
+        <v>7.604695232496185</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>310.9923326754866</v>
+        <v>310.9923326754865</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>62.07742819613018</v>
+        <v>62.07742819613017</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>37.06205662015239</v>
+        <v>37.06205662015238</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>0.8721735496353904</v>
+        <v>0.8721735496353903</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>307.1970627248222</v>
+        <v>307.1970627248221</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64423,7 +64423,7 @@
         <v>8010</v>
       </c>
       <c r="B8010">
-        <v>78.53659079838999</v>
+        <v>78.53659079838998</v>
       </c>
     </row>
     <row r="8011" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>1.623921278774448</v>
+        <v>1.623921278774447</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>0.5377501874189293</v>
+        <v>0.5377501874189292</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>0.4467164613899422</v>
+        <v>0.4467164613899421</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>4.785586297404974</v>
+        <v>4.785586297404973</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>0.9650038011313716</v>
+        <v>0.9650038011313714</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>182.830022900571</v>
+        <v>182.8300229005709</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>8.919704982969643</v>
+        <v>8.919704982969641</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>6.513474527144534</v>
+        <v>6.513474527144533</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>59.69534679389077</v>
+        <v>59.69534679389076</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>0.9941526466366289</v>
+        <v>0.9941526466366288</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>0.7133319773913278</v>
+        <v>0.7133319773913277</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>0.8922723614667855</v>
+        <v>0.8922723614667853</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>0.5261768121021928</v>
+        <v>0.5261768121021927</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>0.8193650791790026</v>
+        <v>0.8193650791790025</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>1.788770807311068</v>
+        <v>1.788770807311067</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>311.7513866656195</v>
+        <v>311.7513866656194</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>81.54086201570745</v>
+        <v>81.54086201570743</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>54.25653445841352</v>
+        <v>54.25653445841351</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>0.9081333660791374</v>
+        <v>0.9081333660791372</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>310.6875387952788</v>
+        <v>310.6875387952787</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66695,7 +66695,7 @@
         <v>8294</v>
       </c>
       <c r="B8294">
-        <v>59.47876729632003</v>
+        <v>59.47876729632002</v>
       </c>
     </row>
     <row r="8295" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>50.12393974224989</v>
+        <v>50.12393974224988</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>0.8770971430849011</v>
+        <v>0.8770971430849009</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>0.691676958344641</v>
+        <v>0.6916769583446409</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>91.52227545043554</v>
+        <v>91.52227545043552</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>65.07525185059708</v>
+        <v>65.07525185059707</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>0.6869292075183273</v>
+        <v>0.6869292075183272</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>41.06951000280763</v>
+        <v>41.06951000280762</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67135,7 +67135,7 @@
         <v>8349</v>
       </c>
       <c r="B8349">
-        <v>2.683941641350214</v>
+        <v>2.683941641350213</v>
       </c>
     </row>
     <row r="8350" spans="1:2">
@@ -67391,7 +67391,7 @@
         <v>8381</v>
       </c>
       <c r="B8381">
-        <v>23.4528047191471</v>
+        <v>23.45280471914709</v>
       </c>
     </row>
     <row r="8382" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>2.492141300098297</v>
+        <v>2.492141300098296</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>152.0414449340034</v>
+        <v>152.0414449340033</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>1.685058828149591</v>
+        <v>1.68505882814959</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>6.55239436107876</v>
+        <v>6.552394361078759</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>0.7565599555938762</v>
+        <v>0.7565599555938761</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>0.6111117298166372</v>
+        <v>0.6111117298166371</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>25.6061734828152</v>
+        <v>25.60617348281519</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>0.6421420913901005</v>
+        <v>0.6421420913901004</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>0.4358435258556063</v>
+        <v>0.4358435258556062</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68399,7 +68399,7 @@
         <v>8507</v>
       </c>
       <c r="B8507">
-        <v>53.2369403149107</v>
+        <v>53.23694031491069</v>
       </c>
     </row>
     <row r="8508" spans="1:2">
@@ -68447,7 +68447,7 @@
         <v>8513</v>
       </c>
       <c r="B8513">
-        <v>30.62856117945854</v>
+        <v>30.62856117945853</v>
       </c>
     </row>
     <row r="8514" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>47.84120942211667</v>
+        <v>47.84120942211666</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68479,7 +68479,7 @@
         <v>8517</v>
       </c>
       <c r="B8517">
-        <v>0.4566984609667476</v>
+        <v>0.4566984609667475</v>
       </c>
     </row>
     <row r="8518" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>0.5143953563480067</v>
+        <v>0.5143953563480066</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>24.01898865873695</v>
+        <v>24.01898865873694</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>92.85955859984726</v>
+        <v>92.85955859984723</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>95.59566981678958</v>
+        <v>95.59566981678957</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>94.57636874432542</v>
+        <v>94.57636874432541</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>3.626636875018684</v>
+        <v>3.626636875018683</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>181.1835498053716</v>
+        <v>181.1835498053715</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>100.1737325117185</v>
+        <v>100.1737325117184</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>2.238708119415898</v>
+        <v>2.238708119415897</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>2.556045440078403</v>
+        <v>2.556045440078402</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>12.8271039130259</v>
+        <v>12.82710391302589</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>91.65210592056252</v>
+        <v>91.65210592056251</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>1.520672351854056</v>
+        <v>1.520672351854055</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>6.054144288250607</v>
+        <v>6.054144288250606</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>30.57639453457682</v>
+        <v>30.57639453457681</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>71.61454593624768</v>
+        <v>71.61454593624767</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
@@ -70183,7 +70183,7 @@
         <v>8730</v>
       </c>
       <c r="B8730">
-        <v>70.96480744353548</v>
+        <v>70.96480744353546</v>
       </c>
     </row>
     <row r="8731" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>84.42937017275366</v>
+        <v>84.42937017275365</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>6.934383152869957</v>
+        <v>6.934383152869956</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
